--- a/xlsx/美国首席大法官_intext.xlsx
+++ b/xlsx/美国首席大法官_intext.xlsx
@@ -20,580 +20,580 @@
     <t>美国首席大法官</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BD%97%E4%BC%AF%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>约翰·格洛佛·罗伯茨</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国首席大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8A%E7%A7%B0</t>
+  </si>
+  <si>
+    <t>尊称</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E6%9C%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>任期制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%9D%B0%E4%BC%8A</t>
+  </si>
+  <si>
+    <t>约翰·杰伊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E8%AA%93</t>
+  </si>
+  <si>
+    <t>宣誓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E4%BC%AF%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>约翰·罗伯茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·W·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>唐纳·川普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>麦克·彭斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+  </si>
+  <si>
+    <t>美国总统行政办公室</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国众议院议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
+  </si>
+  <si>
+    <t>保罗·莱恩</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
+  </si>
+  <si>
+    <t>en-Party leaders of the United States House of Representatives</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
+  </si>
+  <si>
+    <t>en-List of United States congressional districts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>参议院临时议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
+  </si>
+  <si>
+    <t>奥林·哈奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
+  </si>
+  <si>
+    <t>美国参议院政党领袖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国最高法院大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国中期选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E5%85%9A%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>美国第三党派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国政党列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_government</t>
+  </si>
+  <si>
+    <t>en-State government</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>地方政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>州长 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
+  </si>
+  <si>
+    <t>en-State legislature (United States)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>州法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国外交关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国政治列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>Template talk-美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7H%C2%B7%E4%BC%A6%E5%A5%8E%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>威廉·H·伦奎斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>美国法典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%92%99%C2%B7P%C2%B7%E8%94%A1%E6%96%AF</t>
+  </si>
+  <si>
+    <t>萨蒙·P·蔡斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BC%A6%E5%A5%8E%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>威廉·伦奎斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>安德鲁·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A1%BF%E5%BC%B9%E5%8A%BE%E6%A1%88</t>
+  </si>
+  <si>
+    <t>克林顿弹劾案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%AF%86%E6%A3%AE%E5%AD%A6%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>史密森学会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>乔治·华盛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%8B%89%E7%89%B9%E5%88%A9%E5%A5%87</t>
+  </si>
+  <si>
+    <t>约翰·拉特利奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%9F%83%E5%B0%94%E6%96%AF%E6%B2%83%E6%80%9D</t>
+  </si>
+  <si>
+    <t>奥利弗·埃尔斯沃思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>约翰·马歇尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·亚当斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7B%C2%B7%E6%89%98%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>罗杰·B·托尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E6%9D%B0%E5%85%8B%E9%80%8A</t>
+  </si>
+  <si>
+    <t>安德鲁·杰克逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·林肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%A3%AE%C2%B7%E9%9F%A6%E7%89%B9</t>
+  </si>
+  <si>
+    <t>莫里森·韦特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%88%A9%E5%A1%9E%E6%96%AF%C2%B7S%C2%B7%E6%A0%BC%E5%85%B0%E7%89%B9</t>
+  </si>
+  <si>
+    <t>尤利塞斯·S·格兰特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E7%BB%B4%E5%B0%94%C2%B7%E5%AF%8C%E5%8B%92</t>
+  </si>
+  <si>
+    <t>梅尔维尔·富勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BD%97%E5%BC%97%C2%B7%E5%85%8B%E5%88%A9%E5%A4%AB%E5%85%B0</t>
+  </si>
+  <si>
+    <t>格罗弗·克利夫兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E6%80%80%E7%89%B9</t>
+  </si>
+  <si>
+    <t>爱德华·道格拉斯·怀特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E5%A1%94%E5%A4%AB%E8%84%B1</t>
+  </si>
+  <si>
+    <t>威廉·霍华德·塔夫脱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7G%C2%B7%E5%93%88%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>沃伦·G·哈定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E5%9F%83%E6%96%87%E6%96%AF%C2%B7%E4%BC%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>查尔斯·埃文斯·休斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>赫伯特·胡佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%A6%C2%B7%E8%8F%B2%E6%96%AF%E5%85%8B%C2%B7%E6%96%AF%E9%80%9A</t>
+  </si>
+  <si>
+    <t>哈伦·菲斯克·斯通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7D%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>富兰克林·D·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7M%C2%B7%E6%96%87%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>弗雷德·M·文森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
+  </si>
+  <si>
+    <t>哈利·S·杜鲁门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%C2%B7%E6%B2%83%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>厄尔·沃伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7D%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
+  </si>
+  <si>
+    <t>德怀特·D·艾森豪威尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7E%C2%B7%E4%BC%AF%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>沃伦·E·伯格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>理查德·尼克松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>首席大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%92%99%C2%B7%E6%B3%A2%E7%89%B9%E5%85%B0%C2%B7%E8%94%A1%E6%96%AF</t>
+  </si>
+  <si>
+    <t>萨蒙·波特兰·蔡斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%96%87%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>弗雷德·文森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7%E5%8E%84%E5%B0%94%C2%B7%E4%BC%AF%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>沃伦·厄尔·伯格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BD%97%E4%BC%AF%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>约翰·格洛佛·罗伯茨</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国首席大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8A%E7%A7%B0</t>
-  </si>
-  <si>
-    <t>尊称</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E6%9C%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>任期制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%9D%B0%E4%BC%8A</t>
-  </si>
-  <si>
-    <t>约翰·杰伊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E8%AA%93</t>
-  </si>
-  <si>
-    <t>宣誓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E4%BC%AF%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>约翰·罗伯茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·W·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美利坚合众国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>唐納·川普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国共和党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>麥克·彭斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
-  </si>
-  <si>
-    <t>美国总统行政办公室</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國眾議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國眾議院議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
-  </si>
-  <si>
-    <t>保羅·萊恩</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
-  </si>
-  <si>
-    <t>en-Party leaders of the United States House of Representatives</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
-  </si>
-  <si>
-    <t>en-List of United States congressional districts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國參議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>參議院臨時議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
-  </si>
-  <si>
-    <t>奧林·哈奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
-  </si>
-  <si>
-    <t>美国参议院政党领袖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美國最高法院大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國中期選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E5%85%9A%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>美国第三党派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国政党列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_government</t>
-  </si>
-  <si>
-    <t>en-State government</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>地方政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>州長 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
-  </si>
-  <si>
-    <t>en-State legislature (United States)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>州法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美国外交关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国政治列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>Template talk-美國政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美国最高法院大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7H%C2%B7%E4%BC%A6%E5%A5%8E%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>威廉·H·伦奎斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>美国法典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%92%99%C2%B7P%C2%B7%E8%94%A1%E6%96%AF</t>
-  </si>
-  <si>
-    <t>萨蒙·P·蔡斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BC%A6%E5%A5%8E%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>威廉·伦奎斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>安德鲁·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A1%BF%E5%BC%B9%E5%8A%BE%E6%A1%88</t>
-  </si>
-  <si>
-    <t>克林顿弹劾案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%AF%86%E6%A3%AE%E5%AD%A6%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>史密森学会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>乔治·华盛顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%8B%89%E7%89%B9%E5%88%A9%E5%A5%87</t>
-  </si>
-  <si>
-    <t>约翰·拉特利奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%9F%83%E5%B0%94%E6%96%AF%E6%B2%83%E6%80%9D</t>
-  </si>
-  <si>
-    <t>奥利弗·埃尔斯沃思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>约翰·马歇尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·亚当斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7B%C2%B7%E6%89%98%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>罗杰·B·托尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E6%9D%B0%E5%85%8B%E9%80%8A</t>
-  </si>
-  <si>
-    <t>安德鲁·杰克逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
-  </si>
-  <si>
-    <t>亚伯拉罕·林肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%A3%AE%C2%B7%E9%9F%A6%E7%89%B9</t>
-  </si>
-  <si>
-    <t>莫里森·韦特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%88%A9%E5%A1%9E%E6%96%AF%C2%B7S%C2%B7%E6%A0%BC%E5%85%B0%E7%89%B9</t>
-  </si>
-  <si>
-    <t>尤利塞斯·S·格兰特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E7%BB%B4%E5%B0%94%C2%B7%E5%AF%8C%E5%8B%92</t>
-  </si>
-  <si>
-    <t>梅尔维尔·富勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BD%97%E5%BC%97%C2%B7%E5%85%8B%E5%88%A9%E5%A4%AB%E5%85%B0</t>
-  </si>
-  <si>
-    <t>格罗弗·克利夫兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E6%80%80%E7%89%B9</t>
-  </si>
-  <si>
-    <t>爱德华·道格拉斯·怀特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E5%A1%94%E5%A4%AB%E8%84%B1</t>
-  </si>
-  <si>
-    <t>威廉·霍华德·塔夫脱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7G%C2%B7%E5%93%88%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>沃伦·G·哈定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E5%9F%83%E6%96%87%E6%96%AF%C2%B7%E4%BC%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>查尔斯·埃文斯·休斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>赫伯特·胡佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%A6%C2%B7%E8%8F%B2%E6%96%AF%E5%85%8B%C2%B7%E6%96%AF%E9%80%9A</t>
-  </si>
-  <si>
-    <t>哈伦·菲斯克·斯通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7D%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>富兰克林·D·罗斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7M%C2%B7%E6%96%87%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>弗雷德·M·文森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
-  </si>
-  <si>
-    <t>哈利·S·杜鲁门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%C2%B7%E6%B2%83%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>厄尔·沃伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7D%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
-  </si>
-  <si>
-    <t>德怀特·D·艾森豪威尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7E%C2%B7%E4%BC%AF%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>沃伦·E·伯格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>理查德·尼克松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>罗纳德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>首席大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%92%99%C2%B7%E6%B3%A2%E7%89%B9%E5%85%B0%C2%B7%E8%94%A1%E6%96%AF</t>
-  </si>
-  <si>
-    <t>萨蒙·波特兰·蔡斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%96%87%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>弗雷德·文森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7%E5%8E%84%E5%B0%94%C2%B7%E4%BC%AF%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>沃伦·厄尔·伯格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>約翰·羅伯茨</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -942,7 +942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,7 +1634,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1979,7 +1979,7 @@
         <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2034,10 +2034,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2092,10 +2092,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
         <v>71</v>
-      </c>
-      <c r="F40" t="s">
-        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2179,10 +2179,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
         <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>74</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2208,10 +2208,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
         <v>75</v>
-      </c>
-      <c r="F44" t="s">
-        <v>76</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2237,10 +2237,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="s">
         <v>77</v>
-      </c>
-      <c r="F45" t="s">
-        <v>78</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2266,10 +2266,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
         <v>79</v>
-      </c>
-      <c r="F46" t="s">
-        <v>80</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2295,10 +2295,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" t="s">
         <v>81</v>
-      </c>
-      <c r="F47" t="s">
-        <v>82</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2324,10 +2324,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" t="s">
         <v>83</v>
-      </c>
-      <c r="F48" t="s">
-        <v>84</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2353,10 +2353,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s">
         <v>85</v>
-      </c>
-      <c r="F49" t="s">
-        <v>86</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2382,10 +2382,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
         <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>88</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2411,10 +2411,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
         <v>89</v>
-      </c>
-      <c r="F51" t="s">
-        <v>90</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2440,10 +2440,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
         <v>91</v>
-      </c>
-      <c r="F52" t="s">
-        <v>92</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2469,10 +2469,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
         <v>93</v>
-      </c>
-      <c r="F53" t="s">
-        <v>94</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2498,10 +2498,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
         <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2527,10 +2527,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" t="s">
         <v>97</v>
-      </c>
-      <c r="F55" t="s">
-        <v>98</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2556,10 +2556,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" t="s">
         <v>99</v>
-      </c>
-      <c r="F56" t="s">
-        <v>100</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
         <v>101</v>
-      </c>
-      <c r="F57" t="s">
-        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2614,10 +2614,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" t="s">
         <v>103</v>
-      </c>
-      <c r="F58" t="s">
-        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2643,10 +2643,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
         <v>105</v>
-      </c>
-      <c r="F59" t="s">
-        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2672,10 +2672,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
         <v>107</v>
-      </c>
-      <c r="F60" t="s">
-        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2701,10 +2701,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
         <v>109</v>
-      </c>
-      <c r="F61" t="s">
-        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -2730,13 +2730,13 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G62" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -2788,10 +2788,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2817,10 +2817,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2846,10 +2846,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -2875,10 +2875,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2904,10 +2904,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -2933,10 +2933,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2962,10 +2962,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3020,10 +3020,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3078,10 +3078,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3107,10 +3107,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3136,10 +3136,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3165,10 +3165,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3194,10 +3194,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3223,10 +3223,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3252,10 +3252,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3281,10 +3281,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3310,10 +3310,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3339,10 +3339,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3368,10 +3368,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3397,10 +3397,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3426,10 +3426,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3455,10 +3455,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3484,10 +3484,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3513,10 +3513,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3542,10 +3542,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3571,10 +3571,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3600,10 +3600,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3629,10 +3629,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3658,10 +3658,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3687,10 +3687,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3716,10 +3716,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3745,10 +3745,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3774,10 +3774,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3803,10 +3803,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3832,10 +3832,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -3861,13 +3861,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G101" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -3919,10 +3919,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -3948,10 +3948,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -3977,10 +3977,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4006,10 +4006,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4035,10 +4035,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -4064,10 +4064,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4093,10 +4093,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4122,10 +4122,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -4151,10 +4151,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -4180,10 +4180,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4209,10 +4209,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4238,10 +4238,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4267,10 +4267,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -4296,10 +4296,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4325,10 +4325,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G117" t="n">
         <v>5</v>
@@ -4354,18 +4354,76 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>189</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>4</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>190</v>
+      </c>
+      <c r="F119" t="s">
         <v>191</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="s">
+        <v>4</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>190</v>
+      </c>
+      <c r="F120" t="s">
         <v>192</v>
       </c>
-      <c r="G118" t="n">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
-        <v>4</v>
-      </c>
-      <c r="I118" t="n">
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>4</v>
+      </c>
+      <c r="I120" t="n">
         <v>3</v>
       </c>
     </row>
